--- a/Шульгин/Итог для ЦС.xlsx
+++ b/Шульгин/Итог для ЦС.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20640" windowHeight="10300"/>
+    <workbookView windowWidth="23040" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7047,9 +7047,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -7063,6 +7063,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7084,24 +7091,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7123,8 +7122,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7138,13 +7159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -7153,23 +7183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7184,24 +7198,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7220,7 +7220,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7232,7 +7322,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7244,157 +7394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7417,26 +7417,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7452,6 +7452,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7482,26 +7497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7510,142 +7510,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
@@ -7978,11 +7978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -8009,7 +8009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" hidden="1" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" hidden="1" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" hidden="1" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" hidden="1" spans="1:5">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" hidden="1" spans="1:5">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" hidden="1" spans="1:5">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" hidden="1" spans="1:5">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" hidden="1" spans="1:5">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" hidden="1" spans="1:5">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" hidden="1" spans="1:5">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" hidden="1" spans="1:5">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" hidden="1" spans="1:5">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" hidden="1" spans="1:5">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" hidden="1" spans="1:5">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" hidden="1" spans="1:5">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" hidden="1" spans="1:5">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" hidden="1" spans="1:5">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" hidden="1" spans="1:5">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" hidden="1" spans="1:5">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" hidden="1" spans="1:5">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" hidden="1" spans="1:5">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" hidden="1" spans="1:5">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" hidden="1" spans="1:5">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" hidden="1" spans="1:5">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" hidden="1" spans="1:5">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" hidden="1" spans="1:5">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" hidden="1" spans="1:5">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" hidden="1" spans="1:5">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" hidden="1" spans="1:5">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" hidden="1" spans="1:5">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" hidden="1" spans="1:5">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" hidden="1" spans="1:5">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:5">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" hidden="1" spans="1:5">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" hidden="1" spans="1:5">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" hidden="1" spans="1:5">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" hidden="1" spans="1:5">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" hidden="1" spans="1:5">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" hidden="1" spans="1:5">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" hidden="1" spans="1:5">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" hidden="1" spans="1:5">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" hidden="1" spans="1:5">
       <c r="A59" t="s">
         <v>176</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" hidden="1" spans="1:5">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:5">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" hidden="1" spans="1:5">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" hidden="1" spans="1:5">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" hidden="1" spans="1:5">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" hidden="1" spans="1:5">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" hidden="1" spans="1:5">
       <c r="A66" t="s">
         <v>197</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" hidden="1" spans="1:5">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" hidden="1" spans="1:5">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" hidden="1" spans="1:5">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" hidden="1" spans="1:5">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" hidden="1" spans="1:5">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" hidden="1" spans="1:5">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" hidden="1" spans="1:5">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" hidden="1" spans="1:5">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" hidden="1" spans="1:5">
       <c r="A76" t="s">
         <v>227</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" hidden="1" spans="1:5">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" hidden="1" spans="1:5">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" hidden="1" spans="1:5">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" hidden="1" spans="1:5">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" hidden="1" spans="1:5">
       <c r="A81" t="s">
         <v>242</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" hidden="1" spans="1:5">
       <c r="A82" t="s">
         <v>245</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" hidden="1" spans="1:5">
       <c r="A83" t="s">
         <v>248</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" hidden="1" spans="1:5">
       <c r="A84" t="s">
         <v>251</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" hidden="1" spans="1:5">
       <c r="A85" t="s">
         <v>254</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" hidden="1" spans="1:5">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" hidden="1" spans="1:5">
       <c r="A87" t="s">
         <v>260</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" hidden="1" spans="1:5">
       <c r="A88" t="s">
         <v>263</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" hidden="1" spans="1:5">
       <c r="A89" t="s">
         <v>266</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" hidden="1" spans="1:5">
       <c r="A90" t="s">
         <v>269</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" hidden="1" spans="1:5">
       <c r="A91" t="s">
         <v>272</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" hidden="1" spans="1:5">
       <c r="A92" t="s">
         <v>275</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" hidden="1" spans="1:5">
       <c r="A93" t="s">
         <v>278</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" hidden="1" spans="1:5">
       <c r="A94" t="s">
         <v>281</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" hidden="1" spans="1:5">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" hidden="1" spans="1:5">
       <c r="A96" t="s">
         <v>287</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" hidden="1" spans="1:5">
       <c r="A97" t="s">
         <v>290</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" hidden="1" spans="1:5">
       <c r="A98" t="s">
         <v>293</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" hidden="1" spans="1:5">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" hidden="1" spans="1:5">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" hidden="1" spans="1:5">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" hidden="1" spans="1:5">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" hidden="1" spans="1:5">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" hidden="1" spans="1:5">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" hidden="1" spans="1:5">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" hidden="1" spans="1:5">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" hidden="1" spans="1:5">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" hidden="1" spans="1:5">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" hidden="1" spans="1:5">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" hidden="1" spans="1:5">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" hidden="1" spans="1:5">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" hidden="1" spans="1:5">
       <c r="A112" t="s">
         <v>335</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" hidden="1" spans="1:5">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" hidden="1" spans="1:5">
       <c r="A114" t="s">
         <v>341</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" hidden="1" spans="1:5">
       <c r="A115" t="s">
         <v>344</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" hidden="1" spans="1:5">
       <c r="A116" t="s">
         <v>347</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" hidden="1" spans="1:5">
       <c r="A117" t="s">
         <v>350</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" hidden="1" spans="1:5">
       <c r="A118" t="s">
         <v>353</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" hidden="1" spans="1:5">
       <c r="A119" t="s">
         <v>356</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" hidden="1" spans="1:5">
       <c r="A120" t="s">
         <v>359</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" hidden="1" spans="1:5">
       <c r="A121" t="s">
         <v>362</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" hidden="1" spans="1:5">
       <c r="A122" t="s">
         <v>365</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" hidden="1" spans="1:5">
       <c r="A123" t="s">
         <v>368</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" hidden="1" spans="1:5">
       <c r="A124" t="s">
         <v>371</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" hidden="1" spans="1:5">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" hidden="1" spans="1:5">
       <c r="A126" t="s">
         <v>377</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" hidden="1" spans="1:5">
       <c r="A127" t="s">
         <v>380</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" hidden="1" spans="1:5">
       <c r="A128" t="s">
         <v>383</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" hidden="1" spans="1:5">
       <c r="A129" t="s">
         <v>386</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" hidden="1" spans="1:5">
       <c r="A323" t="s">
         <v>1161</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" hidden="1" spans="1:5">
       <c r="A324" t="s">
         <v>1165</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" hidden="1" spans="1:5">
       <c r="A325" t="s">
         <v>1169</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" hidden="1" spans="1:5">
       <c r="A326" t="s">
         <v>1173</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" hidden="1" spans="1:5">
       <c r="A327" t="s">
         <v>1177</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" hidden="1" spans="1:5">
       <c r="A328" t="s">
         <v>1181</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" hidden="1" spans="1:5">
       <c r="A329" t="s">
         <v>1185</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" hidden="1" spans="1:5">
       <c r="A330" t="s">
         <v>1189</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" hidden="1" spans="1:5">
       <c r="A331" t="s">
         <v>1193</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" hidden="1" spans="1:5">
       <c r="A332" t="s">
         <v>1197</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" hidden="1" spans="1:5">
       <c r="A333" t="s">
         <v>1201</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" hidden="1" spans="1:5">
       <c r="A334" t="s">
         <v>1205</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" hidden="1" spans="1:5">
       <c r="A335" t="s">
         <v>1209</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" hidden="1" spans="1:5">
       <c r="A336" t="s">
         <v>1213</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" hidden="1" spans="1:5">
       <c r="A337" t="s">
         <v>1217</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" hidden="1" spans="1:5">
       <c r="A338" t="s">
         <v>1221</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" hidden="1" spans="1:5">
       <c r="A339" t="s">
         <v>1225</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" hidden="1" spans="1:5">
       <c r="A340" t="s">
         <v>1229</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" hidden="1" spans="1:5">
       <c r="A341" t="s">
         <v>1233</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" hidden="1" spans="1:5">
       <c r="A342" t="s">
         <v>1237</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" hidden="1" spans="1:5">
       <c r="A343" t="s">
         <v>1241</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" hidden="1" spans="1:5">
       <c r="A344" t="s">
         <v>1245</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" hidden="1" spans="1:5">
       <c r="A345" t="s">
         <v>1249</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" hidden="1" spans="1:5">
       <c r="A346" t="s">
         <v>1253</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" hidden="1" spans="1:5">
       <c r="A347" t="s">
         <v>1257</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" hidden="1" spans="1:5">
       <c r="A348" t="s">
         <v>1261</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" hidden="1" spans="1:5">
       <c r="A349" t="s">
         <v>1265</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" hidden="1" spans="1:5">
       <c r="A350" t="s">
         <v>1269</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" hidden="1" spans="1:5">
       <c r="A351" t="s">
         <v>1273</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" hidden="1" spans="1:5">
       <c r="A352" t="s">
         <v>1277</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" hidden="1" spans="1:5">
       <c r="A353" t="s">
         <v>1281</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" hidden="1" spans="1:5">
       <c r="A354" t="s">
         <v>1285</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" hidden="1" spans="1:5">
       <c r="A355" t="s">
         <v>1289</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" hidden="1" spans="1:5">
       <c r="A356" t="s">
         <v>1293</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" hidden="1" spans="1:5">
       <c r="A357" t="s">
         <v>1297</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" hidden="1" spans="1:5">
       <c r="A358" t="s">
         <v>1301</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" hidden="1" spans="1:5">
       <c r="A359" t="s">
         <v>1305</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" hidden="1" spans="1:5">
       <c r="A360" t="s">
         <v>1309</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" hidden="1" spans="1:5">
       <c r="A361" t="s">
         <v>1313</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" hidden="1" spans="1:5">
       <c r="A362" t="s">
         <v>1317</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" hidden="1" spans="1:5">
       <c r="A363" t="s">
         <v>1321</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" hidden="1" spans="1:5">
       <c r="A364" t="s">
         <v>1325</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" hidden="1" spans="1:5">
       <c r="A365" t="s">
         <v>1329</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" hidden="1" spans="1:5">
       <c r="A366" t="s">
         <v>1333</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" hidden="1" spans="1:5">
       <c r="A367" t="s">
         <v>1337</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" hidden="1" spans="1:5">
       <c r="A368" t="s">
         <v>1341</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" hidden="1" spans="1:5">
       <c r="A369" t="s">
         <v>1345</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" hidden="1" spans="1:5">
       <c r="A370" t="s">
         <v>1349</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" hidden="1" spans="1:5">
       <c r="A371" t="s">
         <v>1353</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" hidden="1" spans="1:5">
       <c r="A372" t="s">
         <v>1357</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" hidden="1" spans="1:5">
       <c r="A373" t="s">
         <v>1361</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" hidden="1" spans="1:5">
       <c r="A374" t="s">
         <v>1365</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" hidden="1" spans="1:5">
       <c r="A375" t="s">
         <v>1369</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" hidden="1" spans="1:5">
       <c r="A376" t="s">
         <v>1373</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" hidden="1" spans="1:5">
       <c r="A377" t="s">
         <v>1377</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" hidden="1" spans="1:5">
       <c r="A378" t="s">
         <v>1381</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" hidden="1" spans="1:5">
       <c r="A379" t="s">
         <v>1385</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" hidden="1" spans="1:5">
       <c r="A380" t="s">
         <v>1389</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" hidden="1" spans="1:5">
       <c r="A381" t="s">
         <v>1393</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" hidden="1" spans="1:5">
       <c r="A382" t="s">
         <v>1397</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" hidden="1" spans="1:5">
       <c r="A383" t="s">
         <v>1401</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" hidden="1" spans="1:5">
       <c r="A384" t="s">
         <v>1405</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" hidden="1" spans="1:5">
       <c r="A385" t="s">
         <v>1409</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" hidden="1" spans="1:5">
       <c r="A386" t="s">
         <v>1413</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" hidden="1" spans="1:5">
       <c r="A387" t="s">
         <v>1417</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" hidden="1" spans="1:5">
       <c r="A388" t="s">
         <v>1421</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" hidden="1" spans="1:5">
       <c r="A389" t="s">
         <v>1425</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" hidden="1" spans="1:5">
       <c r="A390" t="s">
         <v>1429</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" hidden="1" spans="1:5">
       <c r="A391" t="s">
         <v>1433</v>
       </c>
@@ -14639,7 +14639,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" hidden="1" spans="1:5">
       <c r="A392" t="s">
         <v>1437</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" hidden="1" spans="1:5">
       <c r="A393" t="s">
         <v>1441</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" hidden="1" spans="1:5">
       <c r="A394" t="s">
         <v>1445</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" hidden="1" spans="1:5">
       <c r="A395" t="s">
         <v>1449</v>
       </c>
@@ -14707,7 +14707,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" hidden="1" spans="1:5">
       <c r="A396" t="s">
         <v>1453</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" hidden="1" spans="1:5">
       <c r="A397" t="s">
         <v>1457</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" hidden="1" spans="1:5">
       <c r="A398" t="s">
         <v>1461</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" hidden="1" spans="1:5">
       <c r="A399" t="s">
         <v>1465</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" hidden="1" spans="1:5">
       <c r="A400" t="s">
         <v>1469</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" hidden="1" spans="1:5">
       <c r="A401" t="s">
         <v>1473</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" hidden="1" spans="1:5">
       <c r="A402" t="s">
         <v>1477</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" hidden="1" spans="1:5">
       <c r="A403" t="s">
         <v>1481</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" hidden="1" spans="1:5">
       <c r="A404" t="s">
         <v>1485</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" hidden="1" spans="1:5">
       <c r="A405" t="s">
         <v>1489</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" hidden="1" spans="1:5">
       <c r="A406" t="s">
         <v>1493</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" hidden="1" spans="1:5">
       <c r="A407" t="s">
         <v>1497</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" hidden="1" spans="1:5">
       <c r="A408" t="s">
         <v>1501</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" hidden="1" spans="1:5">
       <c r="A409" t="s">
         <v>1505</v>
       </c>
@@ -14945,7 +14945,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" hidden="1" spans="1:5">
       <c r="A410" t="s">
         <v>1509</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" hidden="1" spans="1:5">
       <c r="A411" t="s">
         <v>1513</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" hidden="1" spans="1:5">
       <c r="A412" t="s">
         <v>1517</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" hidden="1" spans="1:5">
       <c r="A413" t="s">
         <v>1521</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" hidden="1" spans="1:5">
       <c r="A414" t="s">
         <v>1525</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" hidden="1" spans="1:5">
       <c r="A415" t="s">
         <v>1529</v>
       </c>
@@ -15047,7 +15047,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" hidden="1" spans="1:5">
       <c r="A416" t="s">
         <v>1533</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" hidden="1" spans="1:5">
       <c r="A417" t="s">
         <v>1537</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" hidden="1" spans="1:5">
       <c r="A418" t="s">
         <v>1541</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" hidden="1" spans="1:5">
       <c r="A419" t="s">
         <v>1545</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" hidden="1" spans="1:5">
       <c r="A420" t="s">
         <v>1549</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" hidden="1" spans="1:5">
       <c r="A421" t="s">
         <v>1553</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" hidden="1" spans="1:5">
       <c r="A422" t="s">
         <v>1557</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" hidden="1" spans="1:5">
       <c r="A423" t="s">
         <v>1561</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" hidden="1" spans="1:5">
       <c r="A424" t="s">
         <v>1565</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" hidden="1" spans="1:5">
       <c r="A425" t="s">
         <v>1569</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" hidden="1" spans="1:5">
       <c r="A426" t="s">
         <v>1573</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" hidden="1" spans="1:5">
       <c r="A427" t="s">
         <v>1577</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" hidden="1" spans="1:5">
       <c r="A428" t="s">
         <v>1581</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" hidden="1" spans="1:5">
       <c r="A429" t="s">
         <v>1585</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" hidden="1" spans="1:5">
       <c r="A430" t="s">
         <v>1589</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" hidden="1" spans="1:5">
       <c r="A431" t="s">
         <v>1593</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" hidden="1" spans="1:5">
       <c r="A432" t="s">
         <v>1597</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" hidden="1" spans="1:5">
       <c r="A433" t="s">
         <v>1601</v>
       </c>
@@ -15353,7 +15353,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" hidden="1" spans="1:5">
       <c r="A434" t="s">
         <v>1605</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" hidden="1" spans="1:5">
       <c r="A435" t="s">
         <v>1609</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" hidden="1" spans="1:5">
       <c r="A436" t="s">
         <v>1613</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" hidden="1" spans="1:5">
       <c r="A437" t="s">
         <v>1617</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" hidden="1" spans="1:5">
       <c r="A438" t="s">
         <v>1621</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" hidden="1" spans="1:5">
       <c r="A439" t="s">
         <v>1625</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" hidden="1" spans="1:5">
       <c r="A440" t="s">
         <v>1629</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" hidden="1" spans="1:5">
       <c r="A441" t="s">
         <v>1633</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" hidden="1" spans="1:5">
       <c r="A442" t="s">
         <v>1637</v>
       </c>
@@ -15506,7 +15506,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" hidden="1" spans="1:5">
       <c r="A443" t="s">
         <v>1641</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" hidden="1" spans="1:5">
       <c r="A444" t="s">
         <v>1645</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" hidden="1" spans="1:5">
       <c r="A445" t="s">
         <v>1649</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" hidden="1" spans="1:5">
       <c r="A446" t="s">
         <v>1653</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" hidden="1" spans="1:5">
       <c r="A447" t="s">
         <v>1657</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" hidden="1" spans="1:5">
       <c r="A448" t="s">
         <v>1661</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" hidden="1" spans="1:5">
       <c r="A449" t="s">
         <v>1665</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" hidden="1" spans="1:5">
       <c r="A450" t="s">
         <v>1669</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" hidden="1" spans="1:5">
       <c r="A451" t="s">
         <v>1673</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" hidden="1" spans="1:5">
       <c r="A452" t="s">
         <v>1677</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" hidden="1" spans="1:5">
       <c r="A453" t="s">
         <v>1681</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" hidden="1" spans="1:5">
       <c r="A454" t="s">
         <v>1685</v>
       </c>
@@ -15710,7 +15710,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" hidden="1" spans="1:5">
       <c r="A455" t="s">
         <v>1689</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" hidden="1" spans="1:5">
       <c r="A456" t="s">
         <v>1693</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" hidden="1" spans="1:5">
       <c r="A457" t="s">
         <v>1697</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" hidden="1" spans="1:5">
       <c r="A458" t="s">
         <v>1701</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" hidden="1" spans="1:5">
       <c r="A459" t="s">
         <v>1705</v>
       </c>
@@ -15795,7 +15795,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" hidden="1" spans="1:5">
       <c r="A460" t="s">
         <v>1709</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" hidden="1" spans="1:5">
       <c r="A461" t="s">
         <v>1713</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" hidden="1" spans="1:5">
       <c r="A462" t="s">
         <v>1717</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" hidden="1" spans="1:5">
       <c r="A463" t="s">
         <v>1721</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" hidden="1" spans="1:5">
       <c r="A464" t="s">
         <v>1725</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" hidden="1" spans="1:5">
       <c r="A465" t="s">
         <v>1729</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" hidden="1" spans="1:5">
       <c r="A466" t="s">
         <v>1733</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" hidden="1" spans="1:5">
       <c r="A467" t="s">
         <v>1737</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" hidden="1" spans="1:5">
       <c r="A468" t="s">
         <v>1741</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" hidden="1" spans="1:5">
       <c r="A469" t="s">
         <v>1745</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" hidden="1" spans="1:5">
       <c r="A470" t="s">
         <v>1749</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" hidden="1" spans="1:5">
       <c r="A471" t="s">
         <v>1753</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" hidden="1" spans="1:5">
       <c r="A472" t="s">
         <v>1757</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" hidden="1" spans="1:5">
       <c r="A473" t="s">
         <v>1761</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" hidden="1" spans="1:5">
       <c r="A474" t="s">
         <v>1765</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" hidden="1" spans="1:5">
       <c r="A475" t="s">
         <v>1769</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" hidden="1" spans="1:5">
       <c r="A476" t="s">
         <v>1773</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" hidden="1" spans="1:5">
       <c r="A477" t="s">
         <v>1777</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" hidden="1" spans="1:5">
       <c r="A478" t="s">
         <v>1781</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" hidden="1" spans="1:5">
       <c r="A479" t="s">
         <v>1785</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" hidden="1" spans="1:5">
       <c r="A480" t="s">
         <v>1789</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" hidden="1" spans="1:5">
       <c r="A481" t="s">
         <v>1793</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" hidden="1" spans="1:5">
       <c r="A482" t="s">
         <v>1797</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" hidden="1" spans="1:5">
       <c r="A483" t="s">
         <v>1801</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" hidden="1" spans="1:5">
       <c r="A484" t="s">
         <v>1805</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" hidden="1" spans="1:5">
       <c r="A485" t="s">
         <v>1809</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" hidden="1" spans="1:5">
       <c r="A486" t="s">
         <v>1813</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" hidden="1" spans="1:5">
       <c r="A487" t="s">
         <v>1817</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" hidden="1" spans="1:5">
       <c r="A488" t="s">
         <v>1821</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" hidden="1" spans="1:5">
       <c r="A489" t="s">
         <v>1825</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" hidden="1" spans="1:5">
       <c r="A490" t="s">
         <v>1829</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" hidden="1" spans="1:5">
       <c r="A491" t="s">
         <v>1833</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" hidden="1" spans="1:5">
       <c r="A492" t="s">
         <v>1837</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" hidden="1" spans="1:5">
       <c r="A493" t="s">
         <v>1841</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" hidden="1" spans="1:5">
       <c r="A494" t="s">
         <v>1845</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" hidden="1" spans="1:5">
       <c r="A495" t="s">
         <v>1849</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" hidden="1" spans="1:5">
       <c r="A496" t="s">
         <v>1853</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" hidden="1" spans="1:5">
       <c r="A497" t="s">
         <v>1857</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" hidden="1" spans="1:5">
       <c r="A498" t="s">
         <v>1861</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" hidden="1" spans="1:5">
       <c r="A499" t="s">
         <v>1865</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" hidden="1" spans="1:5">
       <c r="A500" t="s">
         <v>1869</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" hidden="1" spans="1:5">
       <c r="A501" t="s">
         <v>1873</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" hidden="1" spans="1:5">
       <c r="A502" t="s">
         <v>1877</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" hidden="1" spans="1:5">
       <c r="A503" t="s">
         <v>1881</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" hidden="1" spans="1:5">
       <c r="A504" t="s">
         <v>1885</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" hidden="1" spans="1:5">
       <c r="A505" t="s">
         <v>1889</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" hidden="1" spans="1:5">
       <c r="A506" t="s">
         <v>1893</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" hidden="1" spans="1:5">
       <c r="A507" t="s">
         <v>1897</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" hidden="1" spans="1:5">
       <c r="A508" t="s">
         <v>1901</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" hidden="1" spans="1:5">
       <c r="A509" t="s">
         <v>1905</v>
       </c>
@@ -16645,7 +16645,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" hidden="1" spans="1:5">
       <c r="A510" t="s">
         <v>1909</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" hidden="1" spans="1:5">
       <c r="A511" t="s">
         <v>1913</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" hidden="1" spans="1:5">
       <c r="A512" t="s">
         <v>1917</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" hidden="1" spans="1:5">
       <c r="A513" t="s">
         <v>1921</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" hidden="1" spans="1:5">
       <c r="A514" t="s">
         <v>1925</v>
       </c>
@@ -16730,7 +16730,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" hidden="1" spans="1:5">
       <c r="A515" t="s">
         <v>1929</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" hidden="1" spans="1:5">
       <c r="A516" t="s">
         <v>1933</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" hidden="1" spans="1:5">
       <c r="A517" t="s">
         <v>1937</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" hidden="1" spans="1:5">
       <c r="A518" t="s">
         <v>1941</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" hidden="1" spans="1:5">
       <c r="A519" t="s">
         <v>1945</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" hidden="1" spans="1:5">
       <c r="A520" t="s">
         <v>1949</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" hidden="1" spans="1:5">
       <c r="A521" t="s">
         <v>1953</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" hidden="1" spans="1:5">
       <c r="A522" t="s">
         <v>1957</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" hidden="1" spans="1:5">
       <c r="A523" t="s">
         <v>1961</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" hidden="1" spans="1:5">
       <c r="A524" t="s">
         <v>1965</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" hidden="1" spans="1:5">
       <c r="A525" t="s">
         <v>1969</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" hidden="1" spans="1:5">
       <c r="A526" t="s">
         <v>1973</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" hidden="1" spans="1:5">
       <c r="A527" t="s">
         <v>1977</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" hidden="1" spans="1:5">
       <c r="A528" t="s">
         <v>1981</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" hidden="1" spans="1:5">
       <c r="A529" t="s">
         <v>1985</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" hidden="1" spans="1:5">
       <c r="A530" t="s">
         <v>1989</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" hidden="1" spans="1:5">
       <c r="A531" t="s">
         <v>1993</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" hidden="1" spans="1:5">
       <c r="A532" t="s">
         <v>1997</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" hidden="1" spans="1:5">
       <c r="A533" t="s">
         <v>2001</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" hidden="1" spans="1:5">
       <c r="A534" t="s">
         <v>2005</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" hidden="1" spans="1:5">
       <c r="A535" t="s">
         <v>2009</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" hidden="1" spans="1:5">
       <c r="A536" t="s">
         <v>2013</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" hidden="1" spans="1:5">
       <c r="A537" t="s">
         <v>2017</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" hidden="1" spans="1:5">
       <c r="A538" t="s">
         <v>2021</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" hidden="1" spans="1:5">
       <c r="A539" t="s">
         <v>2025</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" hidden="1" spans="1:5">
       <c r="A540" t="s">
         <v>2029</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" hidden="1" spans="1:5">
       <c r="A541" t="s">
         <v>2033</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" hidden="1" spans="1:5">
       <c r="A542" t="s">
         <v>2037</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" hidden="1" spans="1:5">
       <c r="A543" t="s">
         <v>2041</v>
       </c>
@@ -17223,7 +17223,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" hidden="1" spans="1:5">
       <c r="A544" t="s">
         <v>2045</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" hidden="1" spans="1:5">
       <c r="A545" t="s">
         <v>2049</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" hidden="1" spans="1:5">
       <c r="A546" t="s">
         <v>2053</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" hidden="1" spans="1:5">
       <c r="A547" t="s">
         <v>2057</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" hidden="1" spans="1:5">
       <c r="A548" t="s">
         <v>2061</v>
       </c>
@@ -17308,7 +17308,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" hidden="1" spans="1:5">
       <c r="A549" t="s">
         <v>2065</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" hidden="1" spans="1:5">
       <c r="A550" t="s">
         <v>2069</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" hidden="1" spans="1:5">
       <c r="A551" t="s">
         <v>2073</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" hidden="1" spans="1:5">
       <c r="A552" t="s">
         <v>2077</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" hidden="1" spans="1:5">
       <c r="A553" t="s">
         <v>2081</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" hidden="1" spans="1:5">
       <c r="A554" t="s">
         <v>2085</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" hidden="1" spans="1:5">
       <c r="A555" t="s">
         <v>2089</v>
       </c>
@@ -17427,7 +17427,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" hidden="1" spans="1:5">
       <c r="A556" t="s">
         <v>2093</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" hidden="1" spans="1:5">
       <c r="A557" t="s">
         <v>2097</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" hidden="1" spans="1:5">
       <c r="A558" t="s">
         <v>2101</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" hidden="1" spans="1:5">
       <c r="A559" t="s">
         <v>2105</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" hidden="1" spans="1:5">
       <c r="A560" t="s">
         <v>2109</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" hidden="1" spans="1:5">
       <c r="A561" t="s">
         <v>2113</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" hidden="1" spans="1:5">
       <c r="A562" t="s">
         <v>2117</v>
       </c>
@@ -17546,7 +17546,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" hidden="1" spans="1:5">
       <c r="A563" t="s">
         <v>2121</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" hidden="1" spans="1:5">
       <c r="A564" t="s">
         <v>2125</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" hidden="1" spans="1:5">
       <c r="A565" t="s">
         <v>2129</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" hidden="1" spans="1:5">
       <c r="A566" t="s">
         <v>2133</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" hidden="1" spans="1:5">
       <c r="A567" t="s">
         <v>2137</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" hidden="1" spans="1:5">
       <c r="A568" t="s">
         <v>2141</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" hidden="1" spans="1:5">
       <c r="A569" t="s">
         <v>2145</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" hidden="1" spans="1:5">
       <c r="A570" t="s">
         <v>2149</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" hidden="1" spans="1:5">
       <c r="A571" t="s">
         <v>2153</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" hidden="1" spans="1:5">
       <c r="A572" t="s">
         <v>2157</v>
       </c>
@@ -17716,7 +17716,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" hidden="1" spans="1:5">
       <c r="A573" t="s">
         <v>2161</v>
       </c>
@@ -17733,7 +17733,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" hidden="1" spans="1:5">
       <c r="A574" t="s">
         <v>2165</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" hidden="1" spans="1:5">
       <c r="A575" t="s">
         <v>2169</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" hidden="1" spans="1:5">
       <c r="A576" t="s">
         <v>2173</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" hidden="1" spans="1:5">
       <c r="A577" t="s">
         <v>2177</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" hidden="1" spans="1:5">
       <c r="A578" t="s">
         <v>2181</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" hidden="1" spans="1:5">
       <c r="A579" t="s">
         <v>2185</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" hidden="1" spans="1:5">
       <c r="A580" t="s">
         <v>2189</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" hidden="1" spans="1:5">
       <c r="A581" t="s">
         <v>2193</v>
       </c>
@@ -17869,7 +17869,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" hidden="1" spans="1:5">
       <c r="A582" t="s">
         <v>2197</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" hidden="1" spans="1:5">
       <c r="A583" t="s">
         <v>2201</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" hidden="1" spans="1:5">
       <c r="A584" t="s">
         <v>2205</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" hidden="1" spans="1:5">
       <c r="A585" t="s">
         <v>2209</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" hidden="1" spans="1:5">
       <c r="A586" t="s">
         <v>2213</v>
       </c>
@@ -17954,7 +17954,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" hidden="1" spans="1:5">
       <c r="A587" t="s">
         <v>2217</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" hidden="1" spans="1:5">
       <c r="A588" t="s">
         <v>2221</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" hidden="1" spans="1:5">
       <c r="A589" t="s">
         <v>2225</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" hidden="1" spans="1:5">
       <c r="A590" t="s">
         <v>2229</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" hidden="1" spans="1:5">
       <c r="A591" t="s">
         <v>2233</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" hidden="1" spans="1:5">
       <c r="A592" t="s">
         <v>2237</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" hidden="1" spans="1:5">
       <c r="A593" t="s">
         <v>2241</v>
       </c>
@@ -18073,7 +18073,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" hidden="1" spans="1:5">
       <c r="A594" t="s">
         <v>2245</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" hidden="1" spans="1:5">
       <c r="A595" t="s">
         <v>2249</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" hidden="1" spans="1:5">
       <c r="A596" t="s">
         <v>2253</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" hidden="1" spans="1:5">
       <c r="A597" t="s">
         <v>2257</v>
       </c>
@@ -18141,7 +18141,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" hidden="1" spans="1:5">
       <c r="A598" t="s">
         <v>2261</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" hidden="1" spans="1:5">
       <c r="A599" t="s">
         <v>2265</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" hidden="1" spans="1:5">
       <c r="A600" t="s">
         <v>2269</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" hidden="1" spans="1:5">
       <c r="A601" t="s">
         <v>2273</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" hidden="1" spans="1:5">
       <c r="A602" t="s">
         <v>2277</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" hidden="1" spans="1:5">
       <c r="A603" t="s">
         <v>2281</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" hidden="1" spans="1:5">
       <c r="A604" t="s">
         <v>2285</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" hidden="1" spans="1:5">
       <c r="A605" t="s">
         <v>2289</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" hidden="1" spans="1:5">
       <c r="A606" t="s">
         <v>2293</v>
       </c>
@@ -18294,7 +18294,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" hidden="1" spans="1:5">
       <c r="A607" t="s">
         <v>2297</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" hidden="1" spans="1:5">
       <c r="A608" t="s">
         <v>2301</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" hidden="1" spans="1:5">
       <c r="A609" t="s">
         <v>2305</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" hidden="1" spans="1:5">
       <c r="A610" t="s">
         <v>2309</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" hidden="1" spans="1:5">
       <c r="A611" t="s">
         <v>2313</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" hidden="1" spans="1:5">
       <c r="A612" t="s">
         <v>2317</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" hidden="1" spans="1:5">
       <c r="A613" t="s">
         <v>2321</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" hidden="1" spans="1:5">
       <c r="A614" t="s">
         <v>2325</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" hidden="1" spans="1:5">
       <c r="A615" t="s">
         <v>2329</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" hidden="1" spans="1:5">
       <c r="A616" t="s">
         <v>2333</v>
       </c>
@@ -18464,7 +18464,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" hidden="1" spans="1:5">
       <c r="A617" t="s">
         <v>2337</v>
       </c>
@@ -18482,7 +18482,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E617"/>
+  <autoFilter ref="A1:E617">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="equal" val="2"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
